--- a/data/final/price decline since release date - Apple.xlsx
+++ b/data/final/price decline since release date - Apple.xlsx
@@ -7756,13 +7756,13 @@
         <v>0.8529820812099305</v>
       </c>
       <c r="H235">
-        <v>0.8382724588933652</v>
+        <v>0.8380916213442565</v>
       </c>
       <c r="I235">
         <v>0.8399775769432243</v>
       </c>
       <c r="J235">
-        <v>0.8295470950400141</v>
+        <v>0.8295244903463755</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -7787,8 +7787,14 @@
       <c r="G236">
         <v>0.8513545947723175</v>
       </c>
+      <c r="H236">
+        <v>0.8434263290429632</v>
+      </c>
+      <c r="I236">
+        <v>0.8412682946581984</v>
+      </c>
       <c r="J236">
-        <v>0.8274471575560103</v>
+        <v>0.831172196129653</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -7813,8 +7819,14 @@
       <c r="G237">
         <v>0.8502186421173775</v>
       </c>
+      <c r="H237">
+        <v>0.8439688416902893</v>
+      </c>
+      <c r="I237">
+        <v>0.8425590123731724</v>
+      </c>
       <c r="J237">
-        <v>0.8272362872127275</v>
+        <v>0.8312431971674783</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -7839,8 +7851,14 @@
       <c r="G238">
         <v>0.8456156501726134</v>
       </c>
+      <c r="H238">
+        <v>0.844149679239398</v>
+      </c>
+      <c r="I238">
+        <v>0.8471144866613163</v>
+      </c>
       <c r="J238">
-        <v>0.8260508606903195</v>
+        <v>0.8309461662553289</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -7865,8 +7883,14 @@
       <c r="G239">
         <v>0.8479335854019412</v>
       </c>
+      <c r="H239">
+        <v>0.8421604661992024</v>
+      </c>
+      <c r="I239">
+        <v>0.8464830473085986</v>
+      </c>
       <c r="J239">
-        <v>0.8276745785731193</v>
+        <v>0.8318363731183147</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -17404,8 +17428,11 @@
       <c r="F606">
         <v>0.7823313357819439</v>
       </c>
+      <c r="G606">
+        <v>0.7024494492848925</v>
+      </c>
       <c r="J606">
-        <v>0.7371459493328573</v>
+        <v>0.7313631993248632</v>
       </c>
     </row>
     <row r="607" spans="1:10">
@@ -17427,8 +17454,11 @@
       <c r="F607">
         <v>0.7812275275468773</v>
       </c>
+      <c r="G607">
+        <v>0.7026138418543484</v>
+      </c>
       <c r="J607">
-        <v>0.7361685784530297</v>
+        <v>0.7305761223532494</v>
       </c>
     </row>
     <row r="608" spans="1:10">
@@ -17450,8 +17480,11 @@
       <c r="F608">
         <v>0.7801237193118106</v>
       </c>
+      <c r="G608">
+        <v>0.7024494492848925</v>
+      </c>
       <c r="J608">
-        <v>0.7325530636253706</v>
+        <v>0.7275357945686243</v>
       </c>
     </row>
     <row r="609" spans="1:10">
@@ -17473,8 +17506,11 @@
       <c r="F609">
         <v>0.7812835878600418</v>
       </c>
+      <c r="G609">
+        <v>0.7012987012987014</v>
+      </c>
       <c r="J609">
-        <v>0.7293703391062658</v>
+        <v>0.7246917328050051</v>
       </c>
     </row>
     <row r="610" spans="1:10">
@@ -25773,8 +25809,11 @@
       <c r="E970">
         <v>0.6227005927246604</v>
       </c>
+      <c r="F970">
+        <v>0.5194432630968491</v>
+      </c>
       <c r="J970">
-        <v>0.5608313585569504</v>
+        <v>0.5525537394649301</v>
       </c>
     </row>
     <row r="971" spans="1:10">
@@ -25793,8 +25832,11 @@
       <c r="E971">
         <v>0.6173477475845289</v>
       </c>
+      <c r="F971">
+        <v>0.5145602165087956</v>
+      </c>
       <c r="J971">
-        <v>0.5598007673254152</v>
+        <v>0.5507526571620913</v>
       </c>
     </row>
     <row r="972" spans="1:10">
@@ -25813,8 +25855,11 @@
       <c r="E972">
         <v>0.6121801932377099</v>
       </c>
+      <c r="F972">
+        <v>0.5096771699207423</v>
+      </c>
       <c r="J972">
-        <v>0.5570408069527032</v>
+        <v>0.547568079546311</v>
       </c>
     </row>
     <row r="973" spans="1:10">
@@ -25833,8 +25878,11 @@
       <c r="E973">
         <v>0.6070126388908907</v>
       </c>
+      <c r="F973">
+        <v>0.5233326889619176</v>
+      </c>
       <c r="J973">
-        <v>0.5558446359978579</v>
+        <v>0.5493422465906699</v>
       </c>
     </row>
     <row r="974" spans="1:10">

--- a/data/final/price decline since release date - Apple.xlsx
+++ b/data/final/price decline since release date - Apple.xlsx
@@ -7591,10 +7591,10 @@
         <v>0.8238189346885009</v>
       </c>
       <c r="H253">
-        <v>0.8169119275926463</v>
+        <v>0.8180837549108706</v>
       </c>
       <c r="I253">
-        <v>0.8270644807084894</v>
+        <v>0.8272318846110929</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -7619,8 +7619,11 @@
       <c r="G254">
         <v>0.8245718050065888</v>
       </c>
+      <c r="H254">
+        <v>0.8163657981943379</v>
+      </c>
       <c r="I254">
-        <v>0.8275898987851589</v>
+        <v>0.825986455843613</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -7645,8 +7648,11 @@
       <c r="G255">
         <v>0.8206192358366282</v>
       </c>
+      <c r="H255">
+        <v>0.8165466357434467</v>
+      </c>
       <c r="I255">
-        <v>0.8303669594499604</v>
+        <v>0.828392627491887</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -7671,8 +7677,11 @@
       <c r="G256">
         <v>0.8208074534161501</v>
       </c>
+      <c r="H256">
+        <v>0.8164019657041598</v>
+      </c>
       <c r="I256">
-        <v>0.8304018670937622</v>
+        <v>0.8284018811809618</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -7697,8 +7706,11 @@
       <c r="G257">
         <v>0.8162996423865999</v>
       </c>
+      <c r="H257">
+        <v>0.8139570420402101</v>
+      </c>
       <c r="I257">
-        <v>0.8297674702446284</v>
+        <v>0.8275088376439971</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -7723,8 +7735,11 @@
       <c r="G258">
         <v>0.8146056841709026</v>
       </c>
+      <c r="H258">
+        <v>0.8115121183762606</v>
+      </c>
       <c r="I258">
-        <v>0.8296585099581489</v>
+        <v>0.8270661683035935</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -7749,8 +7764,11 @@
       <c r="G259">
         <v>0.8123470732166396</v>
       </c>
+      <c r="H259">
+        <v>0.8107887681798258</v>
+      </c>
       <c r="I259">
-        <v>0.8285520176639277</v>
+        <v>0.8260144105947703</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -7775,8 +7793,11 @@
       <c r="G260">
         <v>0.8138528138528149</v>
       </c>
+      <c r="H260">
+        <v>0.8088935906651666</v>
+      </c>
       <c r="I260">
-        <v>0.8261783144749812</v>
+        <v>0.8237090682164363</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -7801,8 +7822,11 @@
       <c r="G261">
         <v>0.8087709392057228</v>
       </c>
+      <c r="H261">
+        <v>0.8079026008960509</v>
+      </c>
       <c r="I261">
-        <v>0.8264275910199496</v>
+        <v>0.8237811638593925</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -7827,8 +7851,11 @@
       <c r="G262">
         <v>0.8115942028985518</v>
       </c>
+      <c r="H262">
+        <v>0.8052370554221887</v>
+      </c>
       <c r="I262">
-        <v>0.8225244620515123</v>
+        <v>0.8200548325330376</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -7853,8 +7880,11 @@
       <c r="G263">
         <v>0.8057575757575768</v>
       </c>
+      <c r="H263">
+        <v>0.8036565352429788</v>
+      </c>
       <c r="I263">
-        <v>0.819241377436995</v>
+        <v>0.8170149714092785</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -7879,8 +7909,11 @@
       <c r="G264">
         <v>0.8044400527009233</v>
       </c>
+      <c r="H264">
+        <v>0.8037180200096756</v>
+      </c>
       <c r="I264">
-        <v>0.8171310693118513</v>
+        <v>0.8152149194115406</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -7905,8 +7938,11 @@
       <c r="G265">
         <v>0.8023677771503869</v>
       </c>
+      <c r="H265">
+        <v>0.8037795047763725</v>
+      </c>
       <c r="I265">
-        <v>0.8169943765251496</v>
+        <v>0.8151065377038957</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -7931,8 +7967,11 @@
       <c r="G266">
         <v>0.7989779785431971</v>
       </c>
+      <c r="H266">
+        <v>0.8021194160755547</v>
+      </c>
       <c r="I266">
-        <v>0.8155537352109373</v>
+        <v>0.8136345467630255</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -7957,8 +7996,11 @@
       <c r="G267">
         <v>0.7955900621118024</v>
       </c>
+      <c r="H267">
+        <v>0.8004593273747369</v>
+      </c>
       <c r="I267">
-        <v>0.8142919343816484</v>
+        <v>0.8123158476663753</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -7983,8 +8025,11 @@
       <c r="G268">
         <v>0.7995426312817628</v>
       </c>
+      <c r="H268">
+        <v>0.7992242069143245</v>
+      </c>
       <c r="I268">
-        <v>0.8126651498319909</v>
+        <v>0.8107450151294672</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -8009,8 +8054,11 @@
       <c r="G269">
         <v>0.7967193675889339</v>
       </c>
+      <c r="H269">
+        <v>0.8035172903301651</v>
+      </c>
       <c r="I269">
-        <v>0.8143913333655042</v>
+        <v>0.8128378986461701</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -8035,8 +8083,11 @@
       <c r="G270">
         <v>0.802367777150387</v>
       </c>
+      <c r="H270">
+        <v>0.8041755390089207</v>
+      </c>
       <c r="I270">
-        <v>0.8158964829779763</v>
+        <v>0.8142220624109685</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -8061,8 +8112,11 @@
       <c r="G271">
         <v>0.8014248070769822</v>
       </c>
+      <c r="H271">
+        <v>0.8059043459783998</v>
+      </c>
       <c r="I271">
-        <v>0.8164413388599012</v>
+        <v>0.8149360541625439</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -8087,8 +8141,11 @@
       <c r="G272">
         <v>0.8031206474684748</v>
       </c>
+      <c r="H272">
+        <v>0.8069278865063549</v>
+      </c>
       <c r="I272">
-        <v>0.8144412628834993</v>
+        <v>0.8133679234010501</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -8113,8 +8170,11 @@
       <c r="G273">
         <v>0.8050047054394892</v>
       </c>
+      <c r="H273">
+        <v>0.8079514270343102</v>
+      </c>
       <c r="I273">
-        <v>0.8153010439082203</v>
+        <v>0.8142510986405188</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -17236,8 +17296,11 @@
       <c r="F624">
         <v>0.6801430504542813</v>
       </c>
+      <c r="G624">
+        <v>0.6751025785808409</v>
+      </c>
       <c r="I624">
-        <v>0.7109990053513322</v>
+        <v>0.7050162675562502</v>
       </c>
     </row>
     <row r="625" spans="1:9">
@@ -17259,8 +17322,11 @@
       <c r="F625">
         <v>0.6712603904890774</v>
       </c>
+      <c r="G625">
+        <v>0.6791323169584054</v>
+      </c>
       <c r="I625">
-        <v>0.7091116376226647</v>
+        <v>0.7041150841786216</v>
       </c>
     </row>
     <row r="626" spans="1:9">
@@ -17282,8 +17348,11 @@
       <c r="F626">
         <v>0.6703015658225395</v>
       </c>
+      <c r="G626">
+        <v>0.6795369847543775</v>
+      </c>
       <c r="I626">
-        <v>0.7049369703934325</v>
+        <v>0.7007036394535899</v>
       </c>
     </row>
     <row r="627" spans="1:9">
@@ -17305,8 +17374,11 @@
       <c r="F627">
         <v>0.6693427411560017</v>
       </c>
+      <c r="G627">
+        <v>0.6827555053642025</v>
+      </c>
       <c r="I627">
-        <v>0.7028672389664371</v>
+        <v>0.6995152833660647</v>
       </c>
     </row>
     <row r="628" spans="1:9">
@@ -17328,8 +17400,11 @@
       <c r="F628">
         <v>0.6683839164894637</v>
       </c>
+      <c r="G628">
+        <v>0.6803274985883697</v>
+      </c>
       <c r="I628">
-        <v>0.7013234026821319</v>
+        <v>0.6978240853331715</v>
       </c>
     </row>
     <row r="629" spans="1:9">
@@ -17351,8 +17426,11 @@
       <c r="F629">
         <v>0.6704426831625739</v>
       </c>
+      <c r="G629">
+        <v>0.6775475249388309</v>
+      </c>
       <c r="I629">
-        <v>0.7009943077886629</v>
+        <v>0.6970865106470242</v>
       </c>
     </row>
     <row r="630" spans="1:9">
@@ -17374,8 +17452,11 @@
       <c r="F630">
         <v>0.6694838584960363</v>
       </c>
+      <c r="G630">
+        <v>0.6826293995859228</v>
+      </c>
       <c r="I630">
-        <v>0.7000053354939915</v>
+        <v>0.6971093461759801</v>
       </c>
     </row>
     <row r="631" spans="1:9">
@@ -17397,8 +17478,11 @@
       <c r="F631">
         <v>0.6685250338294983</v>
       </c>
+      <c r="G631">
+        <v>0.6820647468473571</v>
+      </c>
       <c r="I631">
-        <v>0.6983807514939766</v>
+        <v>0.6956614173862067</v>
       </c>
     </row>
     <row r="632" spans="1:9">
@@ -17420,8 +17504,11 @@
       <c r="F632">
         <v>0.6685250338294983</v>
       </c>
+      <c r="G632">
+        <v>0.6799077733860359</v>
+      </c>
       <c r="I632">
-        <v>0.6992092038948966</v>
+        <v>0.6959922988100865</v>
       </c>
     </row>
     <row r="633" spans="1:9">
@@ -17443,8 +17530,11 @@
       <c r="F633">
         <v>0.6685250338294983</v>
       </c>
+      <c r="G633">
+        <v>0.681385281385283</v>
+      </c>
       <c r="I633">
-        <v>0.6997876626721465</v>
+        <v>0.6967205991243359</v>
       </c>
     </row>
     <row r="634" spans="1:9">
@@ -17466,8 +17556,11 @@
       <c r="F634">
         <v>0.6696752368064943</v>
       </c>
+      <c r="G634">
+        <v>0.6838038772821398</v>
+      </c>
       <c r="I634">
-        <v>0.7002228635524077</v>
+        <v>0.6974863658406963</v>
       </c>
     </row>
     <row r="635" spans="1:9">
@@ -17489,8 +17582,11 @@
       <c r="F635">
         <v>0.6704484825053152</v>
       </c>
+      <c r="G635">
+        <v>0.6862224731789965</v>
+      </c>
       <c r="I635">
-        <v>0.701695161468176</v>
+        <v>0.6991163800866461</v>
       </c>
     </row>
     <row r="636" spans="1:9">
@@ -17512,8 +17608,11 @@
       <c r="F636">
         <v>0.6712217282041361</v>
       </c>
+      <c r="G636">
+        <v>0.6892057218144191</v>
+      </c>
       <c r="I636">
-        <v>0.7028780752417934</v>
+        <v>0.7005993496705644</v>
       </c>
     </row>
     <row r="637" spans="1:9">
@@ -17535,8 +17634,11 @@
       <c r="F637">
         <v>0.672371931181132</v>
       </c>
+      <c r="G637">
+        <v>0.6873235460191999</v>
+      </c>
       <c r="I637">
-        <v>0.7043450428905613</v>
+        <v>0.7015081267453344</v>
       </c>
     </row>
     <row r="638" spans="1:9">
@@ -17558,8 +17660,11 @@
       <c r="F638">
         <v>0.6735221341581279</v>
       </c>
+      <c r="G638">
+        <v>0.6854225484660285</v>
+      </c>
       <c r="I638">
-        <v>0.7061128207540224</v>
+        <v>0.7026644420393566</v>
       </c>
     </row>
     <row r="639" spans="1:9">
@@ -17581,8 +17686,11 @@
       <c r="F639">
         <v>0.6746723371351239</v>
       </c>
+      <c r="G639">
+        <v>0.6839243365330339</v>
+      </c>
       <c r="I639">
-        <v>0.7072674057250107</v>
+        <v>0.7033768941930146</v>
       </c>
     </row>
     <row r="640" spans="1:9">
@@ -17604,8 +17712,11 @@
       <c r="F640">
         <v>0.6753914556350272</v>
       </c>
+      <c r="G640">
+        <v>0.6764050442311328</v>
+      </c>
       <c r="I640">
-        <v>0.70615831159292</v>
+        <v>0.7011994336992888</v>
       </c>
     </row>
     <row r="641" spans="1:9">
@@ -17627,8 +17738,11 @@
       <c r="F641">
         <v>0.6740498743475732</v>
       </c>
+      <c r="G641">
+        <v>0.6679446640316221</v>
+      </c>
       <c r="I641">
-        <v>0.7067677964579325</v>
+        <v>0.7002972743868808</v>
       </c>
     </row>
     <row r="642" spans="1:9">
@@ -17650,8 +17764,11 @@
       <c r="F642">
         <v>0.6726792963464134</v>
       </c>
+      <c r="G642">
+        <v>0.6594842838321114</v>
+      </c>
       <c r="I642">
-        <v>0.7060721974661457</v>
+        <v>0.6983075451938067</v>
       </c>
     </row>
     <row r="643" spans="1:9">
@@ -17673,8 +17790,11 @@
       <c r="F643">
         <v>0.6709220954958431</v>
       </c>
+      <c r="G643">
+        <v>0.650459250894035</v>
+      </c>
       <c r="I643">
-        <v>0.7070593830788183</v>
+        <v>0.6976260277146878</v>
       </c>
     </row>
     <row r="644" spans="1:9">
@@ -25605,8 +25725,11 @@
       <c r="E988">
         <v>0.5623719692087878</v>
       </c>
+      <c r="F988">
+        <v>0.4111057413493139</v>
+      </c>
       <c r="I988">
-        <v>0.531662934632011</v>
+        <v>0.5075514959754716</v>
       </c>
     </row>
     <row r="989" spans="1:9">
@@ -25625,8 +25748,11 @@
       <c r="E989">
         <v>0.5527162600906279</v>
       </c>
+      <c r="F989">
+        <v>0.4128455441716606</v>
+      </c>
       <c r="I989">
-        <v>0.5251983651744683</v>
+        <v>0.5027278009739067</v>
       </c>
     </row>
     <row r="990" spans="1:9">
@@ -25645,8 +25771,11 @@
       <c r="E990">
         <v>0.5430605509724681</v>
       </c>
+      <c r="F990">
+        <v>0.4145853469940075</v>
+      </c>
       <c r="I990">
-        <v>0.518846381662149</v>
+        <v>0.4979941747285207</v>
       </c>
     </row>
     <row r="991" spans="1:9">
@@ -25665,8 +25794,11 @@
       <c r="E991">
         <v>0.5366989004020813</v>
       </c>
+      <c r="F991">
+        <v>0.4163251498163542</v>
+      </c>
       <c r="I991">
-        <v>0.5147382101630661</v>
+        <v>0.4950555980937237</v>
       </c>
     </row>
     <row r="992" spans="1:9">
@@ -25685,8 +25817,11 @@
       <c r="E992">
         <v>0.5323775073447214</v>
       </c>
+      <c r="F992">
+        <v>0.418064952638701</v>
+      </c>
       <c r="I992">
-        <v>0.511631650290016</v>
+        <v>0.492918310759753</v>
       </c>
     </row>
     <row r="993" spans="1:9">
@@ -25705,8 +25840,11 @@
       <c r="E993">
         <v>0.5260158567743346</v>
       </c>
+      <c r="F993">
+        <v>0.418064952638701</v>
+      </c>
       <c r="I993">
-        <v>0.5075500761102398</v>
+        <v>0.4896530514159321</v>
       </c>
     </row>
     <row r="994" spans="1:9">
@@ -25725,8 +25863,11 @@
       <c r="E994">
         <v>0.5216944637169748</v>
       </c>
+      <c r="F994">
+        <v>0.418064952638701</v>
+      </c>
       <c r="I994">
-        <v>0.5048083231041426</v>
+        <v>0.4874596490110543</v>
       </c>
     </row>
     <row r="995" spans="1:9">
@@ -25745,8 +25886,11 @@
       <c r="E995">
         <v>0.5173730706596149</v>
       </c>
+      <c r="F995">
+        <v>0.418064952638701</v>
+      </c>
       <c r="I995">
-        <v>0.4980023555075149</v>
+        <v>0.4820148749337521</v>
       </c>
     </row>
     <row r="996" spans="1:9">
@@ -25765,8 +25909,11 @@
       <c r="E996">
         <v>0.5173730706596149</v>
       </c>
+      <c r="F996">
+        <v>0.418064952638701</v>
+      </c>
       <c r="I996">
-        <v>0.4923273186399728</v>
+        <v>0.4774748454397184</v>
       </c>
     </row>
     <row r="997" spans="1:9">
@@ -25785,8 +25932,11 @@
       <c r="E997">
         <v>0.5173730706596149</v>
       </c>
+      <c r="F997">
+        <v>0.418064952638701</v>
+      </c>
       <c r="I997">
-        <v>0.4881675593938118</v>
+        <v>0.4741470380427896</v>
       </c>
     </row>
     <row r="998" spans="1:9">
@@ -25805,8 +25955,11 @@
       <c r="E998">
         <v>0.5194318572519729</v>
       </c>
+      <c r="F998">
+        <v>0.418064952638701</v>
+      </c>
       <c r="I998">
-        <v>0.4845224967957405</v>
+        <v>0.4712309879643325</v>
       </c>
     </row>
     <row r="999" spans="1:9">
@@ -25825,8 +25978,11 @@
       <c r="E999">
         <v>0.5153142840672567</v>
       </c>
+      <c r="F999">
+        <v>0.418064952638701</v>
+      </c>
       <c r="I999">
-        <v>0.479970989869587</v>
+        <v>0.4675897824234098</v>
       </c>
     </row>
     <row r="1000" spans="1:9">
@@ -25845,8 +26001,11 @@
       <c r="E1000">
         <v>0.5111967108825403</v>
       </c>
+      <c r="F1000">
+        <v>0.418064952638701</v>
+      </c>
       <c r="I1000">
-        <v>0.4753903597061556</v>
+        <v>0.4639252782926647</v>
       </c>
     </row>
     <row r="1001" spans="1:9">
@@ -25865,8 +26024,11 @@
       <c r="E1001">
         <v>0.507079137697824</v>
       </c>
+      <c r="F1001">
+        <v>0.418064952638701</v>
+      </c>
       <c r="I1001">
-        <v>0.4708235949804763</v>
+        <v>0.4602718665121213</v>
       </c>
     </row>
     <row r="1002" spans="1:9">
@@ -25885,8 +26047,11 @@
       <c r="E1002">
         <v>0.5029615645131076</v>
       </c>
+      <c r="F1002">
+        <v>0.418064952638701</v>
+      </c>
       <c r="I1002">
-        <v>0.4703235995152641</v>
+        <v>0.4598718701399515</v>
       </c>
     </row>
     <row r="1003" spans="1:9">
@@ -25905,8 +26070,11 @@
       <c r="E1003">
         <v>0.4988439913283912</v>
       </c>
+      <c r="F1003">
+        <v>0.4451382176686643</v>
+      </c>
       <c r="I1003">
-        <v>0.4699206815076443</v>
+        <v>0.4649641887398483</v>
       </c>
     </row>
     <row r="1004" spans="1:9">
@@ -25925,8 +26093,11 @@
       <c r="E1004">
         <v>0.4947264181436748</v>
       </c>
+      <c r="F1004">
+        <v>0.4722114826986275</v>
+      </c>
       <c r="I1004">
-        <v>0.4815066885152653</v>
+        <v>0.4796476473519378</v>
       </c>
     </row>
     <row r="1005" spans="1:9">
@@ -25945,8 +26116,11 @@
       <c r="E1005">
         <v>0.4885500583666002</v>
       </c>
+      <c r="F1005">
+        <v>0.4992847477285908</v>
+      </c>
       <c r="I1005">
-        <v>0.4930378394633928</v>
+        <v>0.4942872211164324</v>
       </c>
     </row>
     <row r="1006" spans="1:9">
@@ -25965,8 +26139,11 @@
       <c r="E1006">
         <v>0.4885500583666002</v>
       </c>
+      <c r="F1006">
+        <v>0.5263580127585539</v>
+      </c>
       <c r="I1006">
-        <v>0.5024277818235285</v>
+        <v>0.5072138280105336</v>
       </c>
     </row>
     <row r="1007" spans="1:9">
@@ -25985,8 +26162,11 @@
       <c r="E1007">
         <v>0.4885500583666002</v>
       </c>
+      <c r="F1007">
+        <v>0.5534312777885172</v>
+      </c>
       <c r="I1007">
-        <v>0.5123117973494112</v>
+        <v>0.5205356934372325</v>
       </c>
     </row>
     <row r="1008" spans="1:9">
